--- a/biology/Botanique/Wagener_(pomme)/Wagener_(pomme).xlsx
+++ b/biology/Botanique/Wagener_(pomme)/Wagener_(pomme).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Wagener est une variété de pomme apparue vers 1800 aux États-Unis.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Wagner Renette (Allemagne),
 „Wageners Preisapfel“,
@@ -519,7 +533,7 @@
 „Basliesle“, „Eisenacher“,
 „Holländischer Bellefleur“,
 „Pfingstapfel“, „Sankt Wendeler“
-„Weberapfel“[1],[2],[3].</t>
+„Weberapfel“.</t>
         </is>
       </c>
     </row>
@@ -547,9 +561,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En  1791, George Wheeler planta des graines de pomme dans son verger de Penn Yan, État de New-York. Abraham Wagener, créateur de la ville de Penn Yan, racheta ce verger, découvrit qu'un de ces semis était intéressant et propagea la variété, principalement en Virginie, sous le nom de 'Wagener'[1],[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En  1791, George Wheeler planta des graines de pomme dans son verger de Penn Yan, État de New-York. Abraham Wagener, créateur de la ville de Penn Yan, racheta ce verger, découvrit qu'un de ces semis était intéressant et propagea la variété, principalement en Virginie, sous le nom de 'Wagener',.
 En 1910, la variété reçut un "Award of Merit", récompense de la "Royal Horticultural Society" de Londres.
 </t>
         </is>
@@ -579,7 +595,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Utilisation : pomme cuite, cidre.
 Goût : semblable à celui de la Northen Spy.
@@ -613,7 +631,9 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Descendants :
 Idared = Jonathan x Wagener
@@ -646,7 +666,9 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Variété diploïde.
 Floraison: groupe B (mi-précoce).
@@ -679,7 +701,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">L'arbre est de vigueur faible à moyenne. Il est très fertile mais a tendance à l'alternance. Il résiste à la tavelure du pommier.
 Résiste bien au gel malgré la floraison précoce.
